--- a/05_Age_gender_detection/Age_gender_classification_img/exe/fairface_bmp/fairface_bmp_summary.xlsx
+++ b/05_Age_gender_detection/Age_gender_classification_img/exe/fairface_bmp/fairface_bmp_summary.xlsx
@@ -777,7 +777,7 @@
         <v>224</v>
       </c>
       <c r="S5" t="n">
-        <v>1904</v>
+        <v>896</v>
       </c>
     </row>
     <row r="6" outlineLevel="1">
@@ -4143,12 +4143,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>post_0_0_cast_fp16_fp32</t>
+          <t>post_0_0_softmax</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>cast_fp16_fp32</t>
+          <t>softmax</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>29939</v>
+        <v>28931</v>
       </c>
     </row>
     <row r="64">
